--- a/Excel-XLSX/UN-RWA.xlsx
+++ b/Excel-XLSX/UN-RWA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="611">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>UTv06W</t>
+    <t>DX3f88</t>
   </si>
   <si>
     <t>1965</t>
@@ -1794,10 +1794,7 @@
     <t>289</t>
   </si>
   <si>
-    <t>49025</t>
-  </si>
-  <si>
-    <t>2081</t>
+    <t>49597</t>
   </si>
   <si>
     <t>290</t>
@@ -1809,13 +1806,13 @@
     <t>292</t>
   </si>
   <si>
-    <t>65029</t>
-  </si>
-  <si>
-    <t>12940</t>
-  </si>
-  <si>
-    <t>4293</t>
+    <t>63977</t>
+  </si>
+  <si>
+    <t>13899</t>
+  </si>
+  <si>
+    <t>4215</t>
   </si>
   <si>
     <t>293</t>
@@ -1830,7 +1827,10 @@
     <t>296</t>
   </si>
   <si>
-    <t>778</t>
+    <t>765</t>
+  </si>
+  <si>
+    <t>12134</t>
   </si>
   <si>
     <t>297</t>
@@ -1840,6 +1840,12 @@
   </si>
   <si>
     <t>299</t>
+  </si>
+  <si>
+    <t>14500</t>
+  </si>
+  <si>
+    <t>364</t>
   </si>
   <si>
     <t>301</t>
@@ -2227,7 +2233,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V303"/>
+  <dimension ref="A1:V302"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -21860,7 +21866,7 @@
         <v>30</v>
       </c>
       <c r="N289" s="2" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="O289" s="2" t="s">
         <v>32</v>
@@ -21931,10 +21937,10 @@
         <v>592</v>
       </c>
       <c r="O290" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="P290" s="2" t="s">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="Q290" s="2" t="s">
         <v>32</v>
@@ -21946,7 +21952,7 @@
         <v>32</v>
       </c>
       <c r="T290" s="2" t="s">
-        <v>593</v>
+        <v>468</v>
       </c>
       <c r="U290" s="1" t="s">
         <v>34</v>
@@ -21966,7 +21972,7 @@
         <v>22</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>590</v>
@@ -21996,7 +22002,7 @@
         <v>30</v>
       </c>
       <c r="N291" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O291" s="2" t="s">
         <v>32</v>
@@ -22034,7 +22040,7 @@
         <v>22</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>590</v>
@@ -22102,7 +22108,7 @@
         <v>22</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>590</v>
@@ -22132,25 +22138,25 @@
         <v>30</v>
       </c>
       <c r="N293" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="O293" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="O293" s="2" t="s">
+      <c r="P293" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q293" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R293" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S293" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T293" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="P293" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q293" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R293" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S293" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T293" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="U293" s="1" t="s">
         <v>34</v>
@@ -22170,7 +22176,7 @@
         <v>22</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>590</v>
@@ -22200,10 +22206,10 @@
         <v>30</v>
       </c>
       <c r="N294" s="2" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="O294" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P294" s="2" t="s">
         <v>32</v>
@@ -22238,7 +22244,7 @@
         <v>22</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>590</v>
@@ -22268,10 +22274,10 @@
         <v>30</v>
       </c>
       <c r="N295" s="2" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="O295" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="P295" s="2" t="s">
         <v>32</v>
@@ -22306,7 +22312,7 @@
         <v>22</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>590</v>
@@ -22336,7 +22342,7 @@
         <v>30</v>
       </c>
       <c r="N296" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="O296" s="2" t="s">
         <v>32</v>
@@ -22374,7 +22380,7 @@
         <v>22</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>590</v>
@@ -22422,13 +22428,13 @@
         <v>32</v>
       </c>
       <c r="T297" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="U297" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V297" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="U297" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V297" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="298">
@@ -22472,10 +22478,10 @@
         <v>30</v>
       </c>
       <c r="N298" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="O298" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="P298" s="2" t="s">
         <v>32</v>
@@ -22540,10 +22546,10 @@
         <v>30</v>
       </c>
       <c r="N299" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="O299" s="2" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="P299" s="2" t="s">
         <v>32</v>
@@ -22623,7 +22629,7 @@
         <v>32</v>
       </c>
       <c r="S300" s="2" t="s">
-        <v>533</v>
+        <v>608</v>
       </c>
       <c r="T300" s="2" t="s">
         <v>32</v>
@@ -22676,10 +22682,10 @@
         <v>30</v>
       </c>
       <c r="N301" s="2" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
       <c r="O301" s="2" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="P301" s="2" t="s">
         <v>32</v>
@@ -22714,7 +22720,7 @@
         <v>22</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>590</v>
@@ -22768,74 +22774,6 @@
         <v>34</v>
       </c>
       <c r="V302" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G303" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="H303" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I303" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="J303" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K303" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L303" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M303" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N303" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U303" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V303" s="2" t="s">
         <v>32</v>
       </c>
     </row>
